--- a/docs/excel/TSystemTime.xlsx
+++ b/docs/excel/TSystemTime.xlsx
@@ -72,276 +72,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[0,0,0,5,0,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,5,30,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,6,0,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,6,30,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,7,0,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,7,30,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,8,0,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,8,30,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,9,0,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,9,30,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,10,0,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,10,30,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,11,0,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,11,30,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,12,0,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,12,30,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,13,0,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,13,30,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,14,0,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,14,30,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,15,0,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,15,30,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,16,0,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,16,30,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,17,0,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,17,30,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,18,0,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,18,30,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,19,0,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,19,30,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,20,0,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,20,30,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,21,0,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,21,30,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,22,0,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,22,30,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,23,0,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,23,30,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,9,45,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,11,45,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,13,45,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,15,45,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,19,45,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,21,45,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,10,45,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,14,45,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,16,45,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,20,45,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,22,45,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,21,5,0,7]</t>
-  </si>
-  <si>
-    <t>[0,0,0,7,10,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,9,10,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,11,10,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,13,10,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,15,10,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,17,10,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,19,10,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,21,10,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,23,10,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,8,25,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,12,25,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,14,25,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,16,25,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,18,25,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,20,25,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,22,25,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,11,20,0,-1]</t>
-  </si>
-  <si>
-    <t>[0,0,0,17,20,0,-1]</t>
-  </si>
-  <si>
-    <t>[2018,1,8,10,30,0,-1]</t>
-  </si>
-  <si>
-    <t>[2018,2,4,1,30,0,-1]</t>
-  </si>
-  <si>
-    <t>[2018,2,4,1,40,0,-1]</t>
-  </si>
-  <si>
-    <t>[2018,2,4,1,50,0,-1]</t>
-  </si>
-  <si>
-    <t>[2018,2,4,2,0,0,-1]</t>
-  </si>
-  <si>
-    <t>[2018,2,4,2,10,0,-1]</t>
-  </si>
-  <si>
-    <t>[2018,2,4,2,20,0,-1]</t>
-  </si>
-  <si>
-    <t>[2018,2,4,2,30,0,-1]</t>
-  </si>
-  <si>
-    <t>[2018,2,4,2,40,0,-1]</t>
-  </si>
-  <si>
-    <t>[2018,2,4,2,50,0,-1]</t>
-  </si>
-  <si>
-    <t>[2018,2,4,3,0,0,-1]</t>
-  </si>
-  <si>
-    <t>[2018,2,4,3,10,0,-1]</t>
-  </si>
-  <si>
-    <t>[2018,2,4,3,20,0,-1]</t>
-  </si>
-  <si>
-    <t>[2018,2,4,3,30,0,-1]</t>
-  </si>
-  <si>
-    <t>[2018,2,4,3,40,0,-1]</t>
-  </si>
-  <si>
-    <t>[2018,2,4,3,50,0,-1]</t>
-  </si>
-  <si>
-    <t>[2018,2,4,4,0,0,-1]</t>
-  </si>
-  <si>
-    <t>[2020,2,4,4,0,0,-1]</t>
-  </si>
-  <si>
     <t>[]int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[0,0,0,23,59,59,-1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2018,2,8,10,30,0,-1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TableName: "SystemTime" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -368,6 +102,270 @@
   <si>
     <t>End</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,5,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,5,30,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,6,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,6,30,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,7,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,7,30,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,8,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,8,30,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,9,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,9,30,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,10,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,10,30,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,11,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,11,30,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,12,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,12,30,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,13,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,13,30,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,14,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,14,30,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,15,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,15,30,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,16,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,16,30,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,17,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,17,30,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,18,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,18,30,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,19,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,19,30,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,20,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,20,30,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,21,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,21,30,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,22,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,22,30,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,23,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,23,30,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,9,45,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,11,45,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,13,45,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,15,45,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,19,45,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,21,45,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,10,45,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,14,45,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,16,45,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,20,45,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,22,45,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,21,5,0,7</t>
+  </si>
+  <si>
+    <t>0,0,0,7,10,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,9,10,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,11,10,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,13,10,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,15,10,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,17,10,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,19,10,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,21,10,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,23,10,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,8,25,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,12,25,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,14,25,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,16,25,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,18,25,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,20,25,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,22,25,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,11,20,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,17,20,0,-1</t>
+  </si>
+  <si>
+    <t>2018,1,8,10,30,0,-1</t>
+  </si>
+  <si>
+    <t>2018,2,4,1,30,0,-1</t>
+  </si>
+  <si>
+    <t>2018,2,4,1,40,0,-1</t>
+  </si>
+  <si>
+    <t>2018,2,4,1,50,0,-1</t>
+  </si>
+  <si>
+    <t>2018,2,4,2,0,0,-1</t>
+  </si>
+  <si>
+    <t>2018,2,4,2,10,0,-1</t>
+  </si>
+  <si>
+    <t>2018,2,4,2,20,0,-1</t>
+  </si>
+  <si>
+    <t>2018,2,4,2,30,0,-1</t>
+  </si>
+  <si>
+    <t>2018,2,4,2,40,0,-1</t>
+  </si>
+  <si>
+    <t>2018,2,4,2,50,0,-1</t>
+  </si>
+  <si>
+    <t>2018,2,4,3,0,0,-1</t>
+  </si>
+  <si>
+    <t>2018,2,4,3,10,0,-1</t>
+  </si>
+  <si>
+    <t>2018,2,4,3,20,0,-1</t>
+  </si>
+  <si>
+    <t>2018,2,4,3,30,0,-1</t>
+  </si>
+  <si>
+    <t>2018,2,4,3,40,0,-1</t>
+  </si>
+  <si>
+    <t>2018,2,4,3,50,0,-1</t>
+  </si>
+  <si>
+    <t>2018,2,4,4,0,0,-1</t>
+  </si>
+  <si>
+    <t>2020,2,4,4,0,0,-1</t>
+  </si>
+  <si>
+    <t>2018,2,8,10,30,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,0,23,59,59,-1</t>
   </si>
 </sst>
 </file>
@@ -790,7 +788,7 @@
   <dimension ref="A1:E148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -805,19 +803,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -831,10 +829,10 @@
         <v>17</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -844,10 +842,10 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -866,7 +864,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -880,7 +878,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -894,7 +892,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -908,7 +906,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -922,7 +920,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -936,7 +934,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -950,7 +948,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -964,7 +962,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -978,7 +976,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -992,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1006,7 +1004,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1020,7 +1018,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1034,7 +1032,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1048,7 +1046,7 @@
         <v>14</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1062,7 +1060,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1076,7 +1074,7 @@
         <v>16</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1090,7 +1088,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1104,7 +1102,7 @@
         <v>18</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1118,7 +1116,7 @@
         <v>19</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1132,7 +1130,7 @@
         <v>20</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1146,7 +1144,7 @@
         <v>21</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1160,7 +1158,7 @@
         <v>22</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1174,7 +1172,7 @@
         <v>23</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1188,7 +1186,7 @@
         <v>24</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1202,7 +1200,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1216,7 +1214,7 @@
         <v>26</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1230,7 +1228,7 @@
         <v>27</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1244,7 +1242,7 @@
         <v>28</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1258,7 +1256,7 @@
         <v>29</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1272,7 +1270,7 @@
         <v>30</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1286,7 +1284,7 @@
         <v>31</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1300,7 +1298,7 @@
         <v>32</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1314,7 +1312,7 @@
         <v>33</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1328,7 +1326,7 @@
         <v>34</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1342,7 +1340,7 @@
         <v>35</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1356,7 +1354,7 @@
         <v>36</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1370,7 +1368,7 @@
         <v>37</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1384,7 +1382,7 @@
         <v>38</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1398,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1412,7 +1410,7 @@
         <v>2</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1426,7 +1424,7 @@
         <v>3</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1440,7 +1438,7 @@
         <v>4</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1454,7 +1452,7 @@
         <v>5</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1468,7 +1466,7 @@
         <v>6</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1482,7 +1480,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1496,7 +1494,7 @@
         <v>2</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1510,7 +1508,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1524,7 +1522,7 @@
         <v>4</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1538,7 +1536,7 @@
         <v>5</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1552,7 +1550,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -1566,7 +1564,7 @@
         <v>2</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -1580,7 +1578,7 @@
         <v>3</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -1594,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1608,7 +1606,7 @@
         <v>2</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -1622,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -1636,7 +1634,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -1650,7 +1648,7 @@
         <v>1</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -1664,7 +1662,7 @@
         <v>2</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -1678,7 +1676,7 @@
         <v>3</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -1692,7 +1690,7 @@
         <v>4</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -1706,7 +1704,7 @@
         <v>5</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -1720,7 +1718,7 @@
         <v>6</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -1734,7 +1732,7 @@
         <v>7</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -1748,7 +1746,7 @@
         <v>8</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -1762,7 +1760,7 @@
         <v>9</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -1776,7 +1774,7 @@
         <v>1</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -1790,7 +1788,7 @@
         <v>2</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -1804,7 +1802,7 @@
         <v>3</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -1818,7 +1816,7 @@
         <v>4</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -1832,7 +1830,7 @@
         <v>5</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -1846,7 +1844,7 @@
         <v>6</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -1860,7 +1858,7 @@
         <v>7</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -1874,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -1888,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -1902,10 +1900,10 @@
         <v>1</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -1919,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -1933,7 +1931,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -1947,7 +1945,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -1961,7 +1959,7 @@
         <v>4</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -1975,7 +1973,7 @@
         <v>5</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -1989,7 +1987,7 @@
         <v>6</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -2003,7 +2001,7 @@
         <v>7</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -2017,7 +2015,7 @@
         <v>8</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -2031,7 +2029,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -2045,7 +2043,7 @@
         <v>10</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -2059,7 +2057,7 @@
         <v>11</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -2073,7 +2071,7 @@
         <v>12</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -2087,7 +2085,7 @@
         <v>13</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -2101,7 +2099,7 @@
         <v>14</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -2115,7 +2113,7 @@
         <v>15</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -2129,7 +2127,7 @@
         <v>16</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -2143,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -2157,10 +2155,10 @@
         <v>1</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -2446,7 +2444,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
